--- a/formData.xlsx
+++ b/formData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Auto\Auto27\AT27\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9598C4EB-B587-4120-8112-1E76BC6FF716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE6F68EC-9A18-42A5-B947-6EF50DDF2B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10140" yWindow="0" windowWidth="10455" windowHeight="10905" xr2:uid="{4574B0AE-978C-4A74-9D51-D86068E3176E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{4574B0AE-978C-4A74-9D51-D86068E3176E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -567,7 +567,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I11" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
